--- a/output/resultados_desocupacion.xlsx
+++ b/output/resultados_desocupacion.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Urbana" sheetId="1" r:id="rId1"/>
     <sheet name="Rural" sheetId="2" r:id="rId2"/>
-    <sheet name="Nacional" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -353,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,25 +391,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -436,18 +420,9 @@
         <v>8240</v>
       </c>
       <c r="G2">
-        <v>0.035</v>
+        <v>44740.83825372982</v>
       </c>
       <c r="H2">
-        <v>0.006</v>
-      </c>
-      <c r="I2">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J2">
-        <v>44740.83825372982</v>
-      </c>
-      <c r="K2">
         <v>48722772.85831177</v>
       </c>
     </row>
@@ -471,18 +446,9 @@
         <v>8323</v>
       </c>
       <c r="G3">
-        <v>0.035</v>
+        <v>52694.92502821844</v>
       </c>
       <c r="H3">
-        <v>0.006</v>
-      </c>
-      <c r="I3">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J3">
-        <v>52694.92502821844</v>
-      </c>
-      <c r="K3">
         <v>48321246.25087631</v>
       </c>
     </row>
@@ -506,18 +472,9 @@
         <v>8406</v>
       </c>
       <c r="G4">
-        <v>0.035</v>
+        <v>60306.01180270704</v>
       </c>
       <c r="H4">
-        <v>0.006</v>
-      </c>
-      <c r="I4">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J4">
-        <v>60306.01180270704</v>
-      </c>
-      <c r="K4">
         <v>47882973.37134939</v>
       </c>
     </row>
@@ -541,18 +498,9 @@
         <v>8489</v>
       </c>
       <c r="G5">
-        <v>0.035</v>
+        <v>67707.09857719565</v>
       </c>
       <c r="H5">
-        <v>0.006</v>
-      </c>
-      <c r="I5">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J5">
-        <v>67707.09857719565</v>
-      </c>
-      <c r="K5">
         <v>47462676.10261415</v>
       </c>
     </row>
@@ -576,18 +524,9 @@
         <v>8572</v>
       </c>
       <c r="G6">
-        <v>0.035</v>
+        <v>74961.18535168427</v>
       </c>
       <c r="H6">
-        <v>0.006</v>
-      </c>
-      <c r="I6">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J6">
-        <v>74961.18535168427</v>
-      </c>
-      <c r="K6">
         <v>47150585.5862094</v>
       </c>
     </row>
@@ -611,18 +550,9 @@
         <v>8655</v>
       </c>
       <c r="G7">
-        <v>0.035</v>
+        <v>82110.27212617287</v>
       </c>
       <c r="H7">
-        <v>0.006</v>
-      </c>
-      <c r="I7">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J7">
-        <v>82110.27212617287</v>
-      </c>
-      <c r="K7">
         <v>46967075.65617088</v>
       </c>
     </row>
@@ -646,18 +576,9 @@
         <v>8738</v>
       </c>
       <c r="G8">
-        <v>0.035</v>
+        <v>89189.35890066148</v>
       </c>
       <c r="H8">
-        <v>0.006</v>
-      </c>
-      <c r="I8">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J8">
-        <v>89189.35890066148</v>
-      </c>
-      <c r="K8">
         <v>46824413.42284728</v>
       </c>
     </row>
@@ -681,18 +602,9 @@
         <v>8821</v>
       </c>
       <c r="G9">
-        <v>0.035</v>
+        <v>96212.4456751501</v>
       </c>
       <c r="H9">
-        <v>0.006</v>
-      </c>
-      <c r="I9">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J9">
-        <v>96212.4456751501</v>
-      </c>
-      <c r="K9">
         <v>46759248.59812295</v>
       </c>
     </row>
@@ -716,18 +628,9 @@
         <v>8904</v>
       </c>
       <c r="G10">
-        <v>0.035</v>
+        <v>103193.5324496387</v>
       </c>
       <c r="H10">
-        <v>0.006</v>
-      </c>
-      <c r="I10">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J10">
-        <v>103193.5324496387</v>
-      </c>
-      <c r="K10">
         <v>46746670.19968633</v>
       </c>
     </row>
@@ -751,18 +654,9 @@
         <v>8987</v>
       </c>
       <c r="G11">
-        <v>0.035</v>
+        <v>110146.6192241273</v>
       </c>
       <c r="H11">
-        <v>0.006</v>
-      </c>
-      <c r="I11">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J11">
-        <v>110146.6192241273</v>
-      </c>
-      <c r="K11">
         <v>46702166.55102998</v>
       </c>
     </row>
@@ -786,18 +680,9 @@
         <v>9070</v>
       </c>
       <c r="G12">
-        <v>0.035</v>
+        <v>117064.7059986159</v>
       </c>
       <c r="H12">
-        <v>0.006</v>
-      </c>
-      <c r="I12">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J12">
-        <v>117064.7059986159</v>
-      </c>
-      <c r="K12">
         <v>46825882.39944637</v>
       </c>
     </row>
@@ -808,7 +693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,25 +732,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -891,18 +761,9 @@
         <v>7658</v>
       </c>
       <c r="G2">
-        <v>0.038</v>
+        <v>25114.08671086701</v>
       </c>
       <c r="H2">
-        <v>0.006</v>
-      </c>
-      <c r="I2">
-        <v>0.074</v>
-      </c>
-      <c r="J2">
-        <v>25114.08671086701</v>
-      </c>
-      <c r="K2">
         <v>29986219.5327752</v>
       </c>
     </row>
@@ -926,18 +787,9 @@
         <v>7718</v>
       </c>
       <c r="G3">
-        <v>0.038</v>
+        <v>40776.9924969518</v>
       </c>
       <c r="H3">
-        <v>0.006</v>
-      </c>
-      <c r="I3">
-        <v>0.074</v>
-      </c>
-      <c r="J3">
-        <v>40776.9924969518</v>
-      </c>
-      <c r="K3">
         <v>40899323.47444266</v>
       </c>
     </row>
@@ -961,18 +813,9 @@
         <v>7778</v>
       </c>
       <c r="G4">
-        <v>0.038</v>
+        <v>53909.89828303661</v>
       </c>
       <c r="H4">
-        <v>0.006</v>
-      </c>
-      <c r="I4">
-        <v>0.074</v>
-      </c>
-      <c r="J4">
-        <v>53909.89828303661</v>
-      </c>
-      <c r="K4">
         <v>46739881.81139275</v>
       </c>
     </row>
@@ -996,18 +839,9 @@
         <v>7838</v>
       </c>
       <c r="G5">
-        <v>0.038</v>
+        <v>65524.80406912143</v>
       </c>
       <c r="H5">
-        <v>0.006</v>
-      </c>
-      <c r="I5">
-        <v>0.074</v>
-      </c>
-      <c r="J5">
-        <v>65524.80406912143</v>
-      </c>
-      <c r="K5">
         <v>50060950.30880877</v>
       </c>
     </row>
@@ -1031,18 +865,9 @@
         <v>7898</v>
       </c>
       <c r="G6">
-        <v>0.038</v>
+        <v>76081.70985520622</v>
       </c>
       <c r="H6">
-        <v>0.006</v>
-      </c>
-      <c r="I6">
-        <v>0.074</v>
-      </c>
-      <c r="J6">
-        <v>76081.70985520622</v>
-      </c>
-      <c r="K6">
         <v>52039889.54096106</v>
       </c>
     </row>
@@ -1066,18 +891,9 @@
         <v>7957</v>
       </c>
       <c r="G7">
-        <v>0.038</v>
+        <v>85856.61564129102</v>
       </c>
       <c r="H7">
-        <v>0.006</v>
-      </c>
-      <c r="I7">
-        <v>0.074</v>
-      </c>
-      <c r="J7">
-        <v>85856.61564129102</v>
-      </c>
-      <c r="K7">
         <v>53316958.31324172</v>
       </c>
     </row>
@@ -1101,18 +917,9 @@
         <v>8017</v>
       </c>
       <c r="G8">
-        <v>0.038</v>
+        <v>95171.52142737585</v>
       </c>
       <c r="H8">
-        <v>0.006</v>
-      </c>
-      <c r="I8">
-        <v>0.074</v>
-      </c>
-      <c r="J8">
-        <v>95171.52142737585</v>
-      </c>
-      <c r="K8">
         <v>54057424.17074948</v>
       </c>
     </row>
@@ -1136,18 +943,9 @@
         <v>8077</v>
       </c>
       <c r="G9">
-        <v>0.038</v>
+        <v>104026.4272134606</v>
       </c>
       <c r="H9">
-        <v>0.006</v>
-      </c>
-      <c r="I9">
-        <v>0.074</v>
-      </c>
-      <c r="J9">
-        <v>104026.4272134606</v>
-      </c>
-      <c r="K9">
         <v>54613874.28706684</v>
       </c>
     </row>
@@ -1171,18 +969,9 @@
         <v>8137</v>
       </c>
       <c r="G10">
-        <v>0.038</v>
+        <v>112605.3329995454</v>
       </c>
       <c r="H10">
-        <v>0.006</v>
-      </c>
-      <c r="I10">
-        <v>0.074</v>
-      </c>
-      <c r="J10">
-        <v>112605.3329995454</v>
-      </c>
-      <c r="K10">
         <v>54951402.50377817</v>
       </c>
     </row>
@@ -1206,18 +995,9 @@
         <v>8197</v>
       </c>
       <c r="G11">
-        <v>0.038</v>
+        <v>120908.2387856302</v>
       </c>
       <c r="H11">
-        <v>0.006</v>
-      </c>
-      <c r="I11">
-        <v>0.074</v>
-      </c>
-      <c r="J11">
-        <v>120908.2387856302</v>
-      </c>
-      <c r="K11">
         <v>55255065.12503302</v>
       </c>
     </row>
@@ -1241,474 +1021,10 @@
         <v>8256</v>
       </c>
       <c r="G12">
-        <v>0.038</v>
+        <v>129073.1445717151</v>
       </c>
       <c r="H12">
-        <v>0.006</v>
-      </c>
-      <c r="I12">
-        <v>0.074</v>
-      </c>
-      <c r="J12">
-        <v>129073.1445717151</v>
-      </c>
-      <c r="K12">
         <v>55372379.02126576</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsPerPSU</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsPerPSU</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DEFF</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PSUinSample</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsInSample</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsInSample</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cve</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>6.963644327639072</v>
-      </c>
-      <c r="C2">
-        <v>1.04004417345732</v>
-      </c>
-      <c r="D2">
-        <v>2283</v>
-      </c>
-      <c r="E2">
-        <v>11418</v>
-      </c>
-      <c r="F2">
-        <v>15898</v>
-      </c>
-      <c r="G2">
-        <v>0.025</v>
-      </c>
-      <c r="H2">
-        <v>0.005</v>
-      </c>
-      <c r="I2">
-        <v>0.05</v>
-      </c>
-      <c r="J2">
-        <v>34476.12477368015</v>
-      </c>
-      <c r="K2">
-        <v>78708992.85831177</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>8.354687500000001</v>
-      </c>
-      <c r="C3">
-        <v>1.050045089273862</v>
-      </c>
-      <c r="D3">
-        <v>1920</v>
-      </c>
-      <c r="E3">
-        <v>11520</v>
-      </c>
-      <c r="F3">
-        <v>16041</v>
-      </c>
-      <c r="G3">
-        <v>0.025</v>
-      </c>
-      <c r="H3">
-        <v>0.005</v>
-      </c>
-      <c r="I3">
-        <v>0.05</v>
-      </c>
-      <c r="J3">
-        <v>46469.04648483141</v>
-      </c>
-      <c r="K3">
-        <v>89220569.25087631</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>9.743527995183625</v>
-      </c>
-      <c r="C4">
-        <v>1.060045987808559</v>
-      </c>
-      <c r="D4">
-        <v>1661</v>
-      </c>
-      <c r="E4">
-        <v>11622</v>
-      </c>
-      <c r="F4">
-        <v>16184</v>
-      </c>
-      <c r="G4">
-        <v>0.025</v>
-      </c>
-      <c r="H4">
-        <v>0.005</v>
-      </c>
-      <c r="I4">
-        <v>0.05</v>
-      </c>
-      <c r="J4">
-        <v>56967.40239093883</v>
-      </c>
-      <c r="K4">
-        <v>94622855.37134939</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>11.14470989761092</v>
-      </c>
-      <c r="C5">
-        <v>1.070046869546013</v>
-      </c>
-      <c r="D5">
-        <v>1465</v>
-      </c>
-      <c r="E5">
-        <v>11723</v>
-      </c>
-      <c r="F5">
-        <v>16327</v>
-      </c>
-      <c r="G5">
-        <v>0.025</v>
-      </c>
-      <c r="H5">
-        <v>0.005</v>
-      </c>
-      <c r="I5">
-        <v>0.05</v>
-      </c>
-      <c r="J5">
-        <v>66569.02805639191</v>
-      </c>
-      <c r="K5">
-        <v>97523626.10261415</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>12.54379284082254</v>
-      </c>
-      <c r="C6">
-        <v>1.080047734952873</v>
-      </c>
-      <c r="D6">
-        <v>1313</v>
-      </c>
-      <c r="E6">
-        <v>11824</v>
-      </c>
-      <c r="F6">
-        <v>16470</v>
-      </c>
-      <c r="G6">
-        <v>0.025</v>
-      </c>
-      <c r="H6">
-        <v>0.005</v>
-      </c>
-      <c r="I6">
-        <v>0.05</v>
-      </c>
-      <c r="J6">
-        <v>75544.91666885713</v>
-      </c>
-      <c r="K6">
-        <v>99190475.5862094</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>13.92455993294216</v>
-      </c>
-      <c r="C7">
-        <v>1.085003109346398</v>
-      </c>
-      <c r="D7">
-        <v>1193</v>
-      </c>
-      <c r="E7">
-        <v>11925</v>
-      </c>
-      <c r="F7">
-        <v>16612</v>
-      </c>
-      <c r="G7">
-        <v>0.025</v>
-      </c>
-      <c r="H7">
-        <v>0.005</v>
-      </c>
-      <c r="I7">
-        <v>0.05</v>
-      </c>
-      <c r="J7">
-        <v>84060.38026502168</v>
-      </c>
-      <c r="K7">
-        <v>100284033.6561709</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>15.32936870997255</v>
-      </c>
-      <c r="C8">
-        <v>1.095005003524825</v>
-      </c>
-      <c r="D8">
-        <v>1093</v>
-      </c>
-      <c r="E8">
-        <v>12027</v>
-      </c>
-      <c r="F8">
-        <v>16755</v>
-      </c>
-      <c r="G8">
-        <v>0.025</v>
-      </c>
-      <c r="H8">
-        <v>0.005</v>
-      </c>
-      <c r="I8">
-        <v>0.05</v>
-      </c>
-      <c r="J8">
-        <v>92298.11292117774</v>
-      </c>
-      <c r="K8">
-        <v>100881837.4228473</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>16.71414441147379</v>
-      </c>
-      <c r="C9">
-        <v>1.105006863412948</v>
-      </c>
-      <c r="D9">
-        <v>1011</v>
-      </c>
-      <c r="E9">
-        <v>12129</v>
-      </c>
-      <c r="F9">
-        <v>16898</v>
-      </c>
-      <c r="G9">
-        <v>0.025</v>
-      </c>
-      <c r="H9">
-        <v>0.005</v>
-      </c>
-      <c r="I9">
-        <v>0.05</v>
-      </c>
-      <c r="J9">
-        <v>100270.1509378071</v>
-      </c>
-      <c r="K9">
-        <v>101373122.598123</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>18.10945802337938</v>
-      </c>
-      <c r="C10">
-        <v>1.115008689933549</v>
-      </c>
-      <c r="D10">
-        <v>941</v>
-      </c>
-      <c r="E10">
-        <v>12231</v>
-      </c>
-      <c r="F10">
-        <v>17041</v>
-      </c>
-      <c r="G10">
-        <v>0.025</v>
-      </c>
-      <c r="H10">
-        <v>0.005</v>
-      </c>
-      <c r="I10">
-        <v>0.05</v>
-      </c>
-      <c r="J10">
-        <v>108074.4667371799</v>
-      </c>
-      <c r="K10">
-        <v>101698073.1996863</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>19.50510783200908</v>
-      </c>
-      <c r="C11">
-        <v>1.125010483976598</v>
-      </c>
-      <c r="D11">
-        <v>881</v>
-      </c>
-      <c r="E11">
-        <v>12332</v>
-      </c>
-      <c r="F11">
-        <v>17184</v>
-      </c>
-      <c r="G11">
-        <v>0.025</v>
-      </c>
-      <c r="H11">
-        <v>0.005</v>
-      </c>
-      <c r="I11">
-        <v>0.05</v>
-      </c>
-      <c r="J11">
-        <v>115728.9801941316</v>
-      </c>
-      <c r="K11">
-        <v>101957231.55103</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>20.89987937273824</v>
-      </c>
-      <c r="C12">
-        <v>1.135012246400689</v>
-      </c>
-      <c r="D12">
-        <v>829</v>
-      </c>
-      <c r="E12">
-        <v>12432</v>
-      </c>
-      <c r="F12">
-        <v>17326</v>
-      </c>
-      <c r="G12">
-        <v>0.025</v>
-      </c>
-      <c r="H12">
-        <v>0.005</v>
-      </c>
-      <c r="I12">
-        <v>0.05</v>
-      </c>
-      <c r="J12">
-        <v>123278.9642936627</v>
-      </c>
-      <c r="K12">
-        <v>102198261.3994464</v>
       </c>
     </row>
   </sheetData>
